--- a/main/static/records/Grade1.xlsx
+++ b/main/static/records/Grade1.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+  <si>
+    <t xml:space="preserve">RFID No.</t>
+  </si>
   <si>
     <t xml:space="preserve">LAST NAME</t>
   </si>
@@ -46,6 +49,9 @@
     <t xml:space="preserve">STUDENT ID NUMBER</t>
   </si>
   <si>
+    <t xml:space="preserve">0006616932</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beredo</t>
   </si>
   <si>
@@ -61,7 +67,7 @@
     <t xml:space="preserve">Leonisa Tejada</t>
   </si>
   <si>
-    <t xml:space="preserve">09176214704</t>
+    <t xml:space="preserve">09955307541 / 09396562942</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -70,10 +76,13 @@
     <t xml:space="preserve">18-0022</t>
   </si>
   <si>
+    <t xml:space="preserve">0006593058</t>
+  </si>
+  <si>
     <t xml:space="preserve">De Leon</t>
   </si>
   <si>
-    <t xml:space="preserve">Charilyn</t>
+    <t xml:space="preserve">Charilyn Jen</t>
   </si>
   <si>
     <t xml:space="preserve">Sta. Calina Norte Candelaria Quezon</t>
@@ -88,6 +97,9 @@
     <t xml:space="preserve">18-0023</t>
   </si>
   <si>
+    <t xml:space="preserve">0006591303</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dimayacyac</t>
   </si>
   <si>
@@ -127,6 +139,9 @@
     <t xml:space="preserve">18-0025</t>
   </si>
   <si>
+    <t xml:space="preserve">0006598097</t>
+  </si>
+  <si>
     <t xml:space="preserve">Garinga</t>
   </si>
   <si>
@@ -142,12 +157,15 @@
     <t xml:space="preserve">Glenn Garinga</t>
   </si>
   <si>
-    <t xml:space="preserve">09974726472</t>
+    <t xml:space="preserve">09974726472 / 09152602278</t>
   </si>
   <si>
     <t xml:space="preserve">18-0026</t>
   </si>
   <si>
+    <t xml:space="preserve">0006598608</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peer</t>
   </si>
   <si>
@@ -166,10 +184,16 @@
     <t xml:space="preserve">18-0027</t>
   </si>
   <si>
+    <t xml:space="preserve">0006590731</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sophia Izabelle</t>
   </si>
   <si>
     <t xml:space="preserve">18-0028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0006612153</t>
   </si>
   <si>
     <t xml:space="preserve">Yaco</t>
@@ -198,7 +222,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -219,6 +243,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -270,8 +301,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -279,11 +314,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -304,252 +343,276 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="1:9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3:H9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="71.6785714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="70.0612244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>2011334281</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D3" s="0"/>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D4" s="0"/>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>27</v>
+      <c r="E4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="A5" s="0"/>
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="E5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="0"/>
+      <c r="E7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="0"/>
+      <c r="E8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="0"/>
-      <c r="E8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>55</v>
+      <c r="E9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/main/static/records/Grade1.xlsx
+++ b/main/static/records/Grade1.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Leonisa Tejada</t>
   </si>
   <si>
-    <t xml:space="preserve">09955307541 / 09396562942</t>
+    <t xml:space="preserve">09955307541</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">Glenn Garinga</t>
   </si>
   <si>
-    <t xml:space="preserve">09974726472 / 09152602278</t>
+    <t xml:space="preserve">09974726472</t>
   </si>
   <si>
     <t xml:space="preserve">18-0026</t>
@@ -346,21 +346,21 @@
   <dimension ref="1:9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="70.0612244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="69.25"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/main/static/records/Grade1.xlsx
+++ b/main/static/records/Grade1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
   <si>
     <t xml:space="preserve">RFID No.</t>
   </si>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">18-0022</t>
   </si>
   <si>
-    <t xml:space="preserve">0006593058</t>
+    <t xml:space="preserve">0006123401</t>
   </si>
   <si>
     <t xml:space="preserve">De Leon</t>
@@ -118,6 +118,9 @@
     <t xml:space="preserve">18-0024</t>
   </si>
   <si>
+    <t xml:space="preserve">0006137014</t>
+  </si>
+  <si>
     <t xml:space="preserve">Escalona</t>
   </si>
   <si>
@@ -208,7 +211,7 @@
     <t xml:space="preserve">Grace Yaco</t>
   </si>
   <si>
-    <t xml:space="preserve">0939312277</t>
+    <t xml:space="preserve">09393122777</t>
   </si>
   <si>
     <t xml:space="preserve">18-0029</t>
@@ -345,22 +348,22 @@
   </sheetPr>
   <dimension ref="1:9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="69.25"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="66.8214285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -477,142 +480,144 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D7" s="0"/>
       <c r="E7" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
